--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_346__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_346__Reeval_Sobol_Modell_1.2.xlsx
@@ -6229,7 +6229,7 @@
                   <c:v>-0.2324066460132599</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-2.471066236495972</c:v>
+                  <c:v>-2.471069097518921</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-2.491353034973145</c:v>
@@ -6289,7 +6289,7 @@
                   <c:v>92.90715026855469</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.6668352484703064</c:v>
+                  <c:v>-0.6668410897254944</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>33.96569442749023</c:v>
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-2.471066236495972</v>
+        <v>-2.471069097518921</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-0.6668352484703064</v>
+        <v>-0.6668410897254944</v>
       </c>
     </row>
     <row r="60" spans="1:6">
